--- a/Custom Rule Engine.xlsx
+++ b/Custom Rule Engine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwin\Bitbucket_Repo\ba_sql_repo\Harry\Scripts\EDW - Data Quality Check\fill fact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://shieldsrx-my.sharepoint.com/personal/zwin_shieldsrx_com/Documents/mygit_dataprofile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45929804-E5D4-4B0F-9B66-ABD97923CB88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{45929804-E5D4-4B0F-9B66-ABD97923CB88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F09CB872-6AC2-374D-84E7-15C94671B853}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{F48B804B-8D40-491E-8D9A-2F7B1E9C9967}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="15540" xr2:uid="{F48B804B-8D40-491E-8D9A-2F7B1E9C9967}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,45 +24,16 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>DataFields</t>
   </si>
   <si>
-    <t>rxnbr</t>
-  </si>
-  <si>
-    <t>rfnbr</t>
-  </si>
-  <si>
-    <t>dispensedqty1</t>
-  </si>
-  <si>
-    <t>fillcalendardate</t>
-  </si>
-  <si>
-    <t>cashpaid</t>
-  </si>
-  <si>
-    <t>is not null</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
     <t>Business Rule</t>
   </si>
   <si>
@@ -84,55 +55,7 @@
     <t>RuleName</t>
   </si>
   <si>
-    <t>refills</t>
-  </si>
-  <si>
-    <t>qtyleft</t>
-  </si>
-  <si>
-    <t>daysupp</t>
-  </si>
-  <si>
-    <t>juliantocaldate(filldate::integer)</t>
-  </si>
-  <si>
-    <t>is_valid</t>
-  </si>
-  <si>
-    <t>rxstatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> and</t>
-  </si>
-  <si>
-    <t>&lt;= current_date</t>
-  </si>
-  <si>
-    <t>&lt;= 10000</t>
-  </si>
-  <si>
-    <t>&gt;= 0</t>
-  </si>
-  <si>
-    <t>in (0,1,2,4,8,17,900,999,998)</t>
-  </si>
-  <si>
-    <t>validstatus</t>
-  </si>
-  <si>
-    <t>in (0,1,2,4,8,17,900,999,998,128)</t>
-  </si>
-  <si>
-    <t>recognizedstatus</t>
-  </si>
-  <si>
     <t>Threshold to Pass</t>
-  </si>
-  <si>
-    <t>isnotnull</t>
-  </si>
-  <si>
-    <t>greaterorequal0</t>
   </si>
   <si>
     <t>Col Name</t>
@@ -556,354 +479,184 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="5" customWidth="1"/>
     <col min="8" max="8" width="24" style="8" customWidth="1"/>
     <col min="9" max="9" width="24" style="8" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="130.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="11" max="23" width="9.140625" style="1"/>
-    <col min="24" max="24" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="130.1640625" style="6" hidden="1" customWidth="1"/>
+    <col min="11" max="23" width="9.1640625" style="1"/>
+    <col min="24" max="24" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="8">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I2" s="8" t="str">
         <f>UPPER(""""&amp;B2&amp;"_"&amp;A2&amp;"_CHECK""")</f>
-        <v>"RXNBR_ISNOTNULL_CHECK"</v>
+        <v>"__CHECK"</v>
       </c>
       <c r="J2" s="3" t="str">
         <f>",Case "&amp;IF(ISBLANK(G2),IF(ISBLANK(E2),"When ("&amp;B2&amp;" "&amp;C2&amp;") Then 'Pass' Else 'Fail' End ","When ("&amp;B2&amp;" "&amp;C2&amp;" "&amp;D2&amp;" "&amp;B2&amp;" "&amp;E2&amp;") Then 'Pass' Else 'Fail' End "),"When ("&amp;B2&amp;" "&amp;C2&amp;" "&amp;D2&amp;" "&amp;B2&amp;" "&amp;E2&amp;" "&amp;F2&amp;" "&amp;B2&amp;" "&amp;G2&amp;" "&amp;") Then 'Pass' Else 'Fail' End ")&amp;I2</f>
-        <v>,Case When (rxnbr is not null) Then 'Pass' Else 'Fail' End "RXNBR_ISNOTNULL_CHECK"</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1</v>
-      </c>
+        <v>,Case When ( ) Then 'Pass' Else 'Fail' End "__CHECK"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I3" s="8" t="str">
         <f t="shared" ref="I3:I14" si="0">UPPER(""""&amp;B3&amp;"_"&amp;A3&amp;"_CHECK""")</f>
-        <v>"RFNBR_ISNOTNULL_CHECK"</v>
+        <v>"__CHECK"</v>
       </c>
       <c r="J3" s="3" t="str">
         <f t="shared" ref="J3:J14" si="1">",Case "&amp;IF(ISBLANK(G3),IF(ISBLANK(E3),"When ("&amp;B3&amp;" "&amp;C3&amp;") Then 'Pass' Else 'Fail' End ","When ("&amp;B3&amp;" "&amp;C3&amp;" "&amp;D3&amp;" "&amp;B3&amp;" "&amp;E3&amp;") Then 'Pass' Else 'Fail' End "),"When ("&amp;B3&amp;" "&amp;C3&amp;" "&amp;D3&amp;" "&amp;B3&amp;" "&amp;E3&amp;" "&amp;F3&amp;" "&amp;B3&amp;" "&amp;G3&amp;" "&amp;") Then 'Pass' Else 'Fail' End ")&amp;I3</f>
-        <v>,Case When (rfnbr is not null) Then 'Pass' Else 'Fail' End "RFNBR_ISNOTNULL_CHECK"</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="9">
-        <v>1</v>
-      </c>
+        <v>,Case When ( ) Then 'Pass' Else 'Fail' End "__CHECK"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H4" s="9"/>
       <c r="I4" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"REFILLS_ISNOTNULL_CHECK"</v>
+        <v>"__CHECK"</v>
       </c>
       <c r="J4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>,Case When (refills is not null  and refills &gt;= 0) Then 'Pass' Else 'Fail' End "REFILLS_ISNOTNULL_CHECK"</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0.9</v>
-      </c>
+        <v>,Case When ( ) Then 'Pass' Else 'Fail' End "__CHECK"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I5" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"QTYLEFT_GREATEROREQUAL0_CHECK"</v>
+        <v>"__CHECK"</v>
       </c>
       <c r="J5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>,Case When (qtyleft &gt;= 0) Then 'Pass' Else 'Fail' End "QTYLEFT_GREATEROREQUAL0_CHECK"</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0.9</v>
-      </c>
+        <v>,Case When ( ) Then 'Pass' Else 'Fail' End "__CHECK"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I6" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"DISPENSEDQTY1_GREATEROREQUAL0_CHECK"</v>
+        <v>"__CHECK"</v>
       </c>
       <c r="J6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>,Case When (dispensedqty1 &gt;= 0) Then 'Pass' Else 'Fail' End "DISPENSEDQTY1_GREATEROREQUAL0_CHECK"</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0.9</v>
-      </c>
+        <v>,Case When ( ) Then 'Pass' Else 'Fail' End "__CHECK"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I7" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"DAYSUPP_ISNOTNULL_CHECK"</v>
+        <v>"__CHECK"</v>
       </c>
       <c r="J7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>,Case When (daysupp is not null) Then 'Pass' Else 'Fail' End "DAYSUPP_ISNOTNULL_CHECK"</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="8">
-        <v>1</v>
-      </c>
+        <v>,Case When ( ) Then 'Pass' Else 'Fail' End "__CHECK"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I8" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"FILLCALENDARDATE__CHECK"</v>
+        <v>"__CHECK"</v>
       </c>
       <c r="J8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>,Case When (fillcalendardate is not null and fillcalendardate &lt;= current_date) Then 'Pass' Else 'Fail' End "FILLCALENDARDATE__CHECK"</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1</v>
-      </c>
+        <v>,Case When ( ) Then 'Pass' Else 'Fail' End "__CHECK"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I9" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"JULIANTOCALDATE(FILLDATE::INTEGER)__CHECK"</v>
+        <v>"__CHECK"</v>
       </c>
       <c r="J9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>,Case When (juliantocaldate(filldate::integer) is not null and juliantocaldate(filldate::integer) &lt;= current_date) Then 'Pass' Else 'Fail' End "JULIANTOCALDATE(FILLDATE::INTEGER)__CHECK"</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0.95</v>
-      </c>
+        <v>,Case When ( ) Then 'Pass' Else 'Fail' End "__CHECK"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"CASHPAID__CHECK"</v>
+        <v>"__CHECK"</v>
       </c>
       <c r="J10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>,Case When (cashpaid is not null and cashpaid &lt;= 10000) Then 'Pass' Else 'Fail' End "CASHPAID__CHECK"</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="8">
-        <v>1</v>
-      </c>
+        <v>,Case When ( ) Then 'Pass' Else 'Fail' End "__CHECK"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"IS_VALID_ISNOTNULL_CHECK"</v>
+        <v>"__CHECK"</v>
       </c>
       <c r="J11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>,Case When (is_valid is not null) Then 'Pass' Else 'Fail' End "IS_VALID_ISNOTNULL_CHECK"</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1</v>
-      </c>
+        <v>,Case When ( ) Then 'Pass' Else 'Fail' End "__CHECK"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I12" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"RXSTATUS_ISNOTNULL_CHECK"</v>
+        <v>"__CHECK"</v>
       </c>
       <c r="J12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>,Case When (rxstatus is not null) Then 'Pass' Else 'Fail' End "RXSTATUS_ISNOTNULL_CHECK"</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0.95</v>
-      </c>
+        <v>,Case When ( ) Then 'Pass' Else 'Fail' End "__CHECK"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I13" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"RXSTATUS_VALIDSTATUS_CHECK"</v>
+        <v>"__CHECK"</v>
       </c>
       <c r="J13" s="3" t="str">
         <f>",Case "&amp;IF(ISBLANK(G13),IF(ISBLANK(E13),"When ("&amp;B13&amp;" "&amp;C13&amp;") Then 'Pass' Else 'Fail' End ","When ("&amp;B13&amp;" "&amp;C13&amp;" "&amp;D13&amp;" "&amp;B13&amp;" "&amp;E13&amp;") Then 'Pass' Else 'Fail' End "),"When ("&amp;B13&amp;" "&amp;C13&amp;" "&amp;D13&amp;" "&amp;B13&amp;" "&amp;E13&amp;" "&amp;F13&amp;" "&amp;B13&amp;" "&amp;G13&amp;" "&amp;") Then 'Pass' Else 'Fail' End ")&amp;I13</f>
-        <v>,Case When (rxstatus in (0,1,2,4,8,17,900,999,998)) Then 'Pass' Else 'Fail' End "RXSTATUS_VALIDSTATUS_CHECK"</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="8">
-        <v>1</v>
-      </c>
+        <v>,Case When ( ) Then 'Pass' Else 'Fail' End "__CHECK"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I14" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"RXSTATUS_RECOGNIZEDSTATUS_CHECK"</v>
+        <v>"__CHECK"</v>
       </c>
       <c r="J14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>,Case When (rxstatus in (0,1,2,4,8,17,900,999,998,128)) Then 'Pass' Else 'Fail' End "RXSTATUS_RECOGNIZEDSTATUS_CHECK"</v>
+        <v>,Case When ( ) Then 'Pass' Else 'Fail' End "__CHECK"</v>
       </c>
     </row>
   </sheetData>
